--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/102.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/102.xlsx
@@ -479,13 +479,13 @@
         <v>-10.24380504955409</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.10060918826252</v>
+        <v>-20.87326783350975</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.590540556841809</v>
+        <v>-3.428269529922035</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.022327501562872</v>
+        <v>-8.661081137732177</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.10628975959186</v>
       </c>
       <c r="E3" t="n">
-        <v>-20.48325219970848</v>
+        <v>-21.26192921240889</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.043008364361054</v>
+        <v>-3.78235585225835</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.130491889486498</v>
+        <v>-8.665442131857464</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.946929155322483</v>
       </c>
       <c r="E4" t="n">
-        <v>-20.96428158534425</v>
+        <v>-21.8658828976995</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.917248440723401</v>
+        <v>-3.47450486786245</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.872283880817252</v>
+        <v>-8.319393336810357</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.744080481657072</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.08038572041974</v>
+        <v>-22.03107266171882</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.381222616841713</v>
+        <v>-3.20137561023538</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.668544297652305</v>
+        <v>-8.13045766643843</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.483890571993413</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.55868704022376</v>
+        <v>-22.41724064711583</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.408860172660383</v>
+        <v>-3.180333324680177</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.035237015132743</v>
+        <v>-7.443855320062628</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.136728148147384</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.0957248885269</v>
+        <v>-22.8761179426376</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.601614157395372</v>
+        <v>-3.271845755215092</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.962598686545338</v>
+        <v>-6.427934360138303</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.693048532198146</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.64333276967631</v>
+        <v>-23.38501466741478</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.347009346787042</v>
+        <v>-3.074241875668123</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.578303190778355</v>
+        <v>-5.930140569955889</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.130341826757007</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.79517554494896</v>
+        <v>-23.5698289049979</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.177145692202949</v>
+        <v>-2.9234746819062</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.982313697673955</v>
+        <v>-5.174989458299073</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.452250273661574</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.13027296461417</v>
+        <v>-24.01385339765798</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.423116516684307</v>
+        <v>-3.214517260693647</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.163942838221062</v>
+        <v>-4.154497276954182</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.655377789024605</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.61857230346104</v>
+        <v>-24.44613449582373</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.633128695659506</v>
+        <v>-3.282650460390974</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.203893448771841</v>
+        <v>-3.170252192520599</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.768493865471863</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.97417910693297</v>
+        <v>-24.89208036818251</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.246496254610137</v>
+        <v>-3.043431354392825</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.441609276096196</v>
+        <v>-2.287483334616702</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.81646246143647</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.69027194273</v>
+        <v>-25.59436664858738</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.226690887792265</v>
+        <v>-3.062928713778082</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.356521000584408</v>
+        <v>-2.037195517071858</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.859142386191417</v>
       </c>
       <c r="E14" t="n">
-        <v>-24.85107137858283</v>
+        <v>-25.9755380689664</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.79279641736043</v>
+        <v>-2.70535164053879</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.613269731641663</v>
+        <v>-1.10425567069968</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.947484493543821</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.38646163157182</v>
+        <v>-26.69097577784327</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.674981129881514</v>
+        <v>-2.591960904274431</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7180339062271331</v>
+        <v>-0.1729047515592496</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.156032370884985</v>
       </c>
       <c r="E16" t="n">
-        <v>-25.83286218156922</v>
+        <v>-27.24492225639563</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.5014262751129</v>
+        <v>-2.435082451928865</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.4238281399967924</v>
+        <v>0.2652773778948696</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.532227408930172</v>
       </c>
       <c r="E17" t="n">
-        <v>-26.80864928412304</v>
+        <v>-28.28665717257727</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.492596728711252</v>
+        <v>-2.471818449526864</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.05356409393785566</v>
+        <v>0.6650954704643072</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.129673399771144</v>
       </c>
       <c r="E18" t="n">
-        <v>-27.30225808442738</v>
+        <v>-28.88520850527993</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.50101559853608</v>
+        <v>-2.477871040028104</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2326237010307446</v>
+        <v>0.9378629415832259</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.9622926592584505</v>
       </c>
       <c r="E19" t="n">
-        <v>-27.72818347366614</v>
+        <v>-29.38681572081854</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.51743288359518</v>
+        <v>-2.456295852724408</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7783639815569926</v>
+        <v>1.387583127243264</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.044459996837679</v>
       </c>
       <c r="E20" t="n">
-        <v>-28.53396758494016</v>
+        <v>-30.18252358893985</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.355557866231626</v>
+        <v>-2.203881317192457</v>
       </c>
       <c r="G20" t="n">
-        <v>1.00798107806852</v>
+        <v>1.410170338968411</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.353190768171004</v>
       </c>
       <c r="E21" t="n">
-        <v>-29.20520622723668</v>
+        <v>-30.97529560843757</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.119105938120151</v>
+        <v>-2.030082012080497</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7089254170261996</v>
+        <v>1.126378157364599</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.868955871173727</v>
       </c>
       <c r="E22" t="n">
-        <v>-29.66259237566404</v>
+        <v>-31.40755470607242</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.018504843819643</v>
+        <v>-1.984081346469694</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6858835276624295</v>
+        <v>1.176646925970219</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.543080675362186</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.14597826260966</v>
+        <v>-32.05532122640088</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.755637611606226</v>
+        <v>-1.83040030461509</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9516401629341923</v>
+        <v>1.415831808920299</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.333372542785408</v>
       </c>
       <c r="E24" t="n">
-        <v>-30.70711647026326</v>
+        <v>-32.50210311893391</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.634947588089564</v>
+        <v>-1.720602988397914</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8036450360658098</v>
+        <v>1.235476345599807</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.177934930785115</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.13474812289857</v>
+        <v>-33.02942406608906</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.490907667776516</v>
+        <v>-1.559994223812891</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5745412852753085</v>
+        <v>0.9711766343743844</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.02294835186679</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.00754838673861</v>
+        <v>-32.75908398687956</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.495698894506093</v>
+        <v>-1.586688201306247</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6874235648255077</v>
+        <v>0.9413292474518686</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.804743681179804</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.55688942082234</v>
+        <v>-33.29596783146639</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.267739171322449</v>
+        <v>-1.353810137214487</v>
       </c>
       <c r="G27" t="n">
-        <v>1.004592996309748</v>
+        <v>1.170965899990864</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.472074597117963</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.11679324517982</v>
+        <v>-33.011884753954</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.193108481498993</v>
+        <v>-1.255399317990356</v>
       </c>
       <c r="G28" t="n">
-        <v>0.668605777394752</v>
+        <v>1.028798469307844</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.976791979638134</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.45007439879398</v>
+        <v>-33.32705458162967</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.383637968109535</v>
+        <v>-1.23821445885315</v>
       </c>
       <c r="G29" t="n">
-        <v>1.067714963968487</v>
+        <v>1.630664548666276</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.287437908210455</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.62020939325919</v>
+        <v>-33.53405757687828</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.139099622640183</v>
+        <v>-1.197229914287802</v>
       </c>
       <c r="G30" t="n">
-        <v>1.107501701851441</v>
+        <v>1.801545116678687</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.382476969345675</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.39688200408195</v>
+        <v>-33.20187156080231</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.251673894757767</v>
+        <v>-1.443968312847265</v>
       </c>
       <c r="G31" t="n">
-        <v>1.766725609772519</v>
+        <v>2.376775886626166</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.258314022347276</v>
       </c>
       <c r="E32" t="n">
-        <v>-31.36358542281483</v>
+        <v>-33.08433983572168</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.538018137946108</v>
+        <v>-1.591782546461572</v>
       </c>
       <c r="G32" t="n">
-        <v>2.028419480337875</v>
+        <v>2.512211154853444</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.925857286492842</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.84675628439608</v>
+        <v>-32.33078009580004</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.564198769718438</v>
+        <v>-1.722387475904338</v>
       </c>
       <c r="G33" t="n">
-        <v>2.550550746703791</v>
+        <v>3.253081477452001</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.413331001373442</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.74502582950931</v>
+        <v>-32.17601858342785</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.944011046188459</v>
+        <v>-1.978502989634544</v>
       </c>
       <c r="G34" t="n">
-        <v>3.258263824730931</v>
+        <v>3.861357044812958</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.757898370780649</v>
       </c>
       <c r="E35" t="n">
-        <v>-30.14129459403115</v>
+        <v>-31.67854257869179</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.882258000452457</v>
+        <v>-2.156228167260636</v>
       </c>
       <c r="G35" t="n">
-        <v>3.641405514877321</v>
+        <v>4.290445621494616</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.005764883284633</v>
       </c>
       <c r="E36" t="n">
-        <v>-30.41578788457409</v>
+        <v>-32.00890010619953</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.066505113239014</v>
+        <v>-2.185787102778004</v>
       </c>
       <c r="G36" t="n">
-        <v>3.987596091123569</v>
+        <v>4.617847744351309</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.202816874176412</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.76826825909241</v>
+        <v>-31.18545445761878</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.834526626410766</v>
+        <v>-2.13923397939124</v>
       </c>
       <c r="G37" t="n">
-        <v>4.181166540005333</v>
+        <v>4.844961669346976</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.395452132469756</v>
       </c>
       <c r="E38" t="n">
-        <v>-29.20569512792337</v>
+        <v>-30.57689777236298</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.315336006737517</v>
+        <v>-2.41550197942687</v>
       </c>
       <c r="G38" t="n">
-        <v>4.720556000611458</v>
+        <v>5.179995531922923</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.622092839584102</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.55271692627478</v>
+        <v>-29.78748205607938</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.319017428908304</v>
+        <v>-2.44187328246701</v>
       </c>
       <c r="G39" t="n">
-        <v>4.914845133502658</v>
+        <v>5.437538635658269</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.918348801235443</v>
       </c>
       <c r="E40" t="n">
-        <v>-28.28345242857601</v>
+        <v>-29.50083958347216</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.529122499013973</v>
+        <v>-2.628071108993465</v>
       </c>
       <c r="G40" t="n">
-        <v>4.705629862646767</v>
+        <v>5.308346629200042</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.310056898852162</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.75351830725049</v>
+        <v>-29.00287956705627</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.425578222579582</v>
+        <v>-2.552105720295341</v>
       </c>
       <c r="G41" t="n">
-        <v>5.18708459187995</v>
+        <v>5.756839674136485</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.81887571669431</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.11174570934087</v>
+        <v>-28.39823164279057</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.370107550667565</v>
+        <v>-2.549358098436135</v>
       </c>
       <c r="G42" t="n">
-        <v>5.100011379580195</v>
+        <v>5.623311118587304</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.4540687983295999</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.64677671126292</v>
+        <v>-27.77737421625761</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.526844221813991</v>
+        <v>-2.59272358934567</v>
       </c>
       <c r="G43" t="n">
-        <v>5.402391565292017</v>
+        <v>5.968191440993218</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.2179396031932109</v>
       </c>
       <c r="E44" t="n">
-        <v>-26.01829732302444</v>
+        <v>-27.0822381083956</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.559947687309872</v>
+        <v>-2.682656870662571</v>
       </c>
       <c r="G44" t="n">
-        <v>5.307148822517648</v>
+        <v>5.739821041232753</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1015904716937829</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.19278851354585</v>
+        <v>-26.24636949336602</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.523871705638907</v>
+        <v>-2.54979322004729</v>
       </c>
       <c r="G45" t="n">
-        <v>5.210605603916678</v>
+        <v>5.639249280973446</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.091335230277809</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.67050568796706</v>
+        <v>-25.63776147353811</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.338690792540769</v>
+        <v>-2.447011628684137</v>
       </c>
       <c r="G46" t="n">
-        <v>5.23321726067616</v>
+        <v>5.596245576572062</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1658505346014081</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.94312413531432</v>
+        <v>-24.81023839323036</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.314783548961555</v>
+        <v>-2.449588135303001</v>
       </c>
       <c r="G47" t="n">
-        <v>5.134449543950744</v>
+        <v>5.589811643535202</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.3010215398933964</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.72044453954695</v>
+        <v>-24.46903460398836</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.27904001975754</v>
+        <v>-2.40283945164156</v>
       </c>
       <c r="G48" t="n">
-        <v>5.098266004128706</v>
+        <v>5.432737630914959</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.4697807187142679</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.65442592625734</v>
+        <v>-23.44254850022463</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.292651014875031</v>
+        <v>-2.381249597317264</v>
       </c>
       <c r="G49" t="n">
-        <v>4.982508988540761</v>
+        <v>5.183202720427619</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.6474342099704499</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.41912291475959</v>
+        <v>-23.06646653599407</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.139121532233301</v>
+        <v>-2.228668582007715</v>
       </c>
       <c r="G50" t="n">
-        <v>4.590718645246798</v>
+        <v>5.020516127924158</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.8128876531945607</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.16506567292036</v>
+        <v>-22.6989696678218</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.833069702364425</v>
+        <v>-1.997540782374311</v>
       </c>
       <c r="G51" t="n">
-        <v>4.436020689963875</v>
+        <v>4.899161199473595</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.950518178691088</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.3422262611911</v>
+        <v>-21.8101579974304</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.639714369784806</v>
+        <v>-1.822969014177379</v>
       </c>
       <c r="G52" t="n">
-        <v>4.471695773071754</v>
+        <v>4.776437349100296</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.050081120848797</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.59344552548188</v>
+        <v>-20.81513754186214</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.812056750850425</v>
+        <v>-1.946993340377277</v>
       </c>
       <c r="G53" t="n">
-        <v>4.219843473329496</v>
+        <v>4.587594569858839</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.108064614286113</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.03989750098917</v>
+        <v>-20.20828956450632</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.386722931442558</v>
+        <v>-1.618192961556647</v>
       </c>
       <c r="G54" t="n">
-        <v>4.452785094510526</v>
+        <v>4.737506187419052</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.126950034308661</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.2896598412336</v>
+        <v>-19.51442704293315</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.572881645914079</v>
+        <v>-1.68384254576558</v>
       </c>
       <c r="G55" t="n">
-        <v>3.97290462548849</v>
+        <v>4.246625452946457</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.114398874315968</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.08128059055195</v>
+        <v>-19.12338960669669</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.721238559290613</v>
+        <v>-1.818300012619475</v>
       </c>
       <c r="G56" t="n">
-        <v>4.020171543877823</v>
+        <v>4.33923302101956</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.081668864395151</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.81107495903129</v>
+        <v>-18.69193475069144</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.640843730371063</v>
+        <v>-1.787567715454048</v>
       </c>
       <c r="G57" t="n">
-        <v>3.684741671745656</v>
+        <v>3.88174909245486</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.042223617873028</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.64254364975622</v>
+        <v>-17.65807602457241</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.995154947023257</v>
+        <v>-2.140221558778357</v>
       </c>
       <c r="G58" t="n">
-        <v>3.277306506477565</v>
+        <v>3.497761604120493</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.010718122355965</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.3257848948488</v>
+        <v>-17.23610095288211</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.03120159465302</v>
+        <v>-2.17441527280556</v>
       </c>
       <c r="G59" t="n">
-        <v>3.259383407303455</v>
+        <v>3.48535819369913</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.00078567570193</v>
       </c>
       <c r="E60" t="n">
-        <v>-16.68930464687261</v>
+        <v>-16.56224913641523</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.179186943507669</v>
+        <v>-2.322879744333167</v>
       </c>
       <c r="G60" t="n">
-        <v>3.005785732109709</v>
+        <v>3.067832118257727</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.025238270095961</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.1645577618329</v>
+        <v>-15.83554226671012</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.003608039896152</v>
+        <v>-2.126400336365589</v>
       </c>
       <c r="G61" t="n">
-        <v>2.48567362557983</v>
+        <v>2.573646415143097</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.092370628937979</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.98440274779395</v>
+        <v>-15.73768390526195</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.322879744333167</v>
+        <v>-2.494566998478619</v>
       </c>
       <c r="G62" t="n">
-        <v>1.9665588764508</v>
+        <v>2.055343241153976</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.207575352465232</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.45328548680664</v>
+        <v>-15.15641521183383</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.475123418168898</v>
+        <v>-2.673020638127881</v>
       </c>
       <c r="G63" t="n">
-        <v>1.394241954596003</v>
+        <v>1.640755458839588</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.370929760754949</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.4648186540057</v>
+        <v>-15.03685943791029</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.776178683019787</v>
+        <v>-2.937613689765318</v>
       </c>
       <c r="G64" t="n">
-        <v>1.020296486366279</v>
+        <v>1.261221855760981</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.580160162419427</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.20877158637163</v>
+        <v>-14.73105694739163</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.884127954641269</v>
+        <v>-2.967426853639766</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9761536433649038</v>
+        <v>1.207379223135646</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.827154091063542</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.03600875071545</v>
+        <v>-14.60595215067415</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.751992766049158</v>
+        <v>-2.856505065843199</v>
       </c>
       <c r="G66" t="n">
-        <v>0.40154866629639</v>
+        <v>0.6717640758307791</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.102444570196572</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.65005099261372</v>
+        <v>-14.22178865809257</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.103272798443864</v>
+        <v>-3.127708054764705</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3282184522995326</v>
+        <v>0.6601477955149893</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.391832278827989</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.83773996623458</v>
+        <v>-14.30419775784129</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.272999560835684</v>
+        <v>-3.408679279406307</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3122313998447208</v>
+        <v>0.6633843180608869</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.681821802631894</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.8524998779658</v>
+        <v>-14.21047549620253</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.226226432139908</v>
+        <v>-3.328841797269586</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5774453553542559</v>
+        <v>0.8750929824189049</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.956150404916411</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.00544756879037</v>
+        <v>-14.33592741240757</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.584243515997223</v>
+        <v>-3.679965381444551</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5080459028783982</v>
+        <v>0.8606801901752397</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.202596733849899</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.97228054620522</v>
+        <v>-14.22787547164188</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.517630797435507</v>
+        <v>-3.626865877862988</v>
       </c>
       <c r="G71" t="n">
-        <v>0.544845457565667</v>
+        <v>0.9503152420732583</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.40891775135116</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.94722438601228</v>
+        <v>-14.18227570459416</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.734692924312797</v>
+        <v>-3.856429195298979</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3137567699871982</v>
+        <v>0.8160386684734392</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.570404095222881</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.08836023624638</v>
+        <v>-14.38693442105009</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.71855431264511</v>
+        <v>-3.744407380957357</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6598446770892404</v>
+        <v>1.221092887397343</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.683626289447729</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.64413275886353</v>
+        <v>-14.96086960417784</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.859132816096383</v>
+        <v>-3.828434741979024</v>
       </c>
       <c r="G74" t="n">
-        <v>1.019846697734523</v>
+        <v>1.579633094989417</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.753684085243319</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.82794475003894</v>
+        <v>-15.0592021992921</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.986691894261061</v>
+        <v>-3.956223603466447</v>
       </c>
       <c r="G75" t="n">
-        <v>1.114062749066841</v>
+        <v>1.821780716100848</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.784707587055498</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.0161959594495</v>
+        <v>-15.42505636115708</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.800303396466795</v>
+        <v>-3.82788717320993</v>
       </c>
       <c r="G76" t="n">
-        <v>1.32252022385836</v>
+        <v>2.082389227141749</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.788099084136448</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.54814435160418</v>
+        <v>-15.99030377908231</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.079641692814848</v>
+        <v>-3.988085261218131</v>
       </c>
       <c r="G77" t="n">
-        <v>1.701090692584185</v>
+        <v>2.492474234131708</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.77107678025346</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.49181067904237</v>
+        <v>-16.86405241931675</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.369442463858098</v>
+        <v>-4.32804724271593</v>
       </c>
       <c r="G78" t="n">
-        <v>1.99563868929521</v>
+        <v>2.834944276152233</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.747245463434222</v>
       </c>
       <c r="E79" t="n">
-        <v>-18.09368653641453</v>
+        <v>-17.54843026756811</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.11106333994851</v>
+        <v>-4.061185691892244</v>
       </c>
       <c r="G79" t="n">
-        <v>2.366601863336116</v>
+        <v>3.053742000467278</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.722638383213658</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.89068754685214</v>
+        <v>-18.32989890318953</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.288803184595203</v>
+        <v>-4.171305682562636</v>
       </c>
       <c r="G80" t="n">
-        <v>2.626213016976167</v>
+        <v>3.232660095768897</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.708355791987724</v>
       </c>
       <c r="E81" t="n">
-        <v>-20.02680474059957</v>
+        <v>-19.47463541604333</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.127641962234219</v>
+        <v>-3.988251487451607</v>
       </c>
       <c r="G81" t="n">
-        <v>3.090135767584593</v>
+        <v>3.618710745001102</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.705595432623282</v>
       </c>
       <c r="E82" t="n">
-        <v>-21.01345032740481</v>
+        <v>-20.54336742814407</v>
       </c>
       <c r="F82" t="n">
-        <v>-4.033689917272715</v>
+        <v>-3.94078411978073</v>
       </c>
       <c r="G82" t="n">
-        <v>3.253198813616807</v>
+        <v>3.939317148312784</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.721165330946272</v>
       </c>
       <c r="E83" t="n">
-        <v>-22.08201611327207</v>
+        <v>-21.61094074561735</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.011625829282327</v>
+        <v>-3.785704821962187</v>
       </c>
       <c r="G83" t="n">
-        <v>3.660687757960434</v>
+        <v>4.302629026606968</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.751025022973978</v>
       </c>
       <c r="E84" t="n">
-        <v>-23.51749697549444</v>
+        <v>-23.0599446008336</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.07470868488613</v>
+        <v>-3.925711311610031</v>
       </c>
       <c r="G84" t="n">
-        <v>3.584013463266607</v>
+        <v>4.207224946605989</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.798326689669888</v>
       </c>
       <c r="E85" t="n">
-        <v>-24.45846457114209</v>
+        <v>-23.97467778563339</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.941038348137809</v>
+        <v>-3.832091719115476</v>
       </c>
       <c r="G85" t="n">
-        <v>3.801544934803121</v>
+        <v>4.478701719912043</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.854663144020769</v>
       </c>
       <c r="E86" t="n">
-        <v>-26.35849397685185</v>
+        <v>-25.75648122728741</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.029617374552574</v>
+        <v>-3.866867224959842</v>
       </c>
       <c r="G86" t="n">
-        <v>4.329919462938086</v>
+        <v>4.935931420119663</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.921644703286067</v>
       </c>
       <c r="E87" t="n">
-        <v>-27.23261907061504</v>
+        <v>-26.85341303099652</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.709358090728443</v>
+        <v>-3.679755154149273</v>
       </c>
       <c r="G87" t="n">
-        <v>4.619216666274045</v>
+        <v>5.269347021422661</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.98961856411846</v>
       </c>
       <c r="E88" t="n">
-        <v>-28.73881941716733</v>
+        <v>-28.4507958001202</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.559989152930458</v>
+        <v>-3.516340099622641</v>
       </c>
       <c r="G88" t="n">
-        <v>4.773318162719204</v>
+        <v>5.431921166768184</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.06169617929763</v>
       </c>
       <c r="E89" t="n">
-        <v>-30.22605041707599</v>
+        <v>-29.96798907861275</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.686697543900292</v>
+        <v>-3.637450577729858</v>
       </c>
       <c r="G89" t="n">
-        <v>5.078797978784651</v>
+        <v>5.662486730611893</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.130253376239433</v>
       </c>
       <c r="E90" t="n">
-        <v>-32.23612158934627</v>
+        <v>-31.81570611084652</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.79508193713293</v>
+        <v>-3.709387424769645</v>
       </c>
       <c r="G90" t="n">
-        <v>4.833423613141057</v>
+        <v>5.617810985862024</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.203281314646101</v>
       </c>
       <c r="E91" t="n">
-        <v>-33.93581660517388</v>
+        <v>-33.60845603887556</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.853745130529043</v>
+        <v>-3.919893393438402</v>
       </c>
       <c r="G91" t="n">
-        <v>4.77986943192087</v>
+        <v>5.34506795977744</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.276700327912327</v>
       </c>
       <c r="E92" t="n">
-        <v>-35.81023005940444</v>
+        <v>-35.48491065347305</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.553604109962267</v>
+        <v>-3.734336026811512</v>
       </c>
       <c r="G92" t="n">
-        <v>4.394410352519562</v>
+        <v>4.952451374322968</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.363999302035401</v>
       </c>
       <c r="E93" t="n">
-        <v>-38.09376294176874</v>
+        <v>-37.72234997909608</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.639112840064609</v>
+        <v>-3.848406335030372</v>
       </c>
       <c r="G93" t="n">
-        <v>4.289717159471445</v>
+        <v>4.865593278325357</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.464461551631802</v>
       </c>
       <c r="E94" t="n">
-        <v>-40.31129667593312</v>
+        <v>-39.86271807337651</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.769756881562311</v>
+        <v>-4.072396184638079</v>
       </c>
       <c r="G94" t="n">
-        <v>4.20895076603001</v>
+        <v>4.71331049243469</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.592985250289491</v>
       </c>
       <c r="E95" t="n">
-        <v>-42.75934463936911</v>
+        <v>-42.27619831375998</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.692618131216127</v>
+        <v>-3.95674183819434</v>
       </c>
       <c r="G95" t="n">
-        <v>4.047818877710228</v>
+        <v>4.490029548822685</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.753994239626134</v>
       </c>
       <c r="E96" t="n">
-        <v>-44.78632688639205</v>
+        <v>-44.49623033043335</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.793072555310628</v>
+        <v>-4.092372666696295</v>
       </c>
       <c r="G96" t="n">
-        <v>3.573790549907888</v>
+        <v>3.878502791895229</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.956803440814485</v>
       </c>
       <c r="E97" t="n">
-        <v>-47.0250837993657</v>
+        <v>-46.66495955354875</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.820563440923291</v>
+        <v>-4.066676046603789</v>
       </c>
       <c r="G97" t="n">
-        <v>3.314546071782856</v>
+        <v>3.434840085743298</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.213000506147006</v>
       </c>
       <c r="E98" t="n">
-        <v>-49.03035641139611</v>
+        <v>-48.80320826335237</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.928439377441769</v>
+        <v>-4.128331312202453</v>
       </c>
       <c r="G98" t="n">
-        <v>3.205843893103869</v>
+        <v>3.072388672657691</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.516686680022018</v>
       </c>
       <c r="E99" t="n">
-        <v>-51.23177842343057</v>
+        <v>-50.99839923613495</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.72923679264932</v>
+        <v>-4.074342009371112</v>
       </c>
       <c r="G99" t="n">
-        <v>2.973933852371758</v>
+        <v>2.74095800814266</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.893905147383794</v>
       </c>
       <c r="E100" t="n">
-        <v>-53.95441379079168</v>
+        <v>-53.73151785647045</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.910985622926883</v>
+        <v>-4.234256534981033</v>
       </c>
       <c r="G100" t="n">
-        <v>2.424893492210343</v>
+        <v>2.233347092171482</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.302228849391351</v>
       </c>
       <c r="E101" t="n">
-        <v>-56.16965091398033</v>
+        <v>-56.06135207836787</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.933245271191947</v>
+        <v>-4.276512221331779</v>
       </c>
       <c r="G101" t="n">
-        <v>2.048635523732568</v>
+        <v>1.831368058566868</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.814174440560975</v>
       </c>
       <c r="E102" t="n">
-        <v>-58.19046445658894</v>
+        <v>-58.15875680255356</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.796221075732921</v>
+        <v>-4.089893940214768</v>
       </c>
       <c r="G102" t="n">
-        <v>1.562487347907147</v>
+        <v>1.221909351544118</v>
       </c>
     </row>
   </sheetData>
